--- a/Docs/todo-list.xlsx
+++ b/Docs/todo-list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Status</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>medic</t>
+  </si>
+  <si>
+    <t>-Medicine planning</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>-Trả lởi thư anh Tuấn</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -691,6 +700,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1073,11 +1085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105123912"/>
-        <c:axId val="105122344"/>
+        <c:axId val="223071984"/>
+        <c:axId val="223070808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105123912"/>
+        <c:axId val="223071984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105122344"/>
+        <c:crossAx val="223070808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1117,7 +1129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105122344"/>
+        <c:axId val="223070808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -1161,7 +1173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105123912"/>
+        <c:crossAx val="223071984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,7 +1901,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1955,16 +1967,24 @@
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="43" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="38"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
-      <c r="C6" s="35"/>
+      <c r="C6" s="43" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="38"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
